--- a/Code/Results/Cases/Case_1_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2695451764136294</v>
+        <v>0.142413774921593</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0685963491006234</v>
+        <v>0.02385247378005317</v>
       </c>
       <c r="E2">
-        <v>0.2640941369477261</v>
+        <v>0.1636080810366707</v>
       </c>
       <c r="F2">
-        <v>0.3271338212298787</v>
+        <v>0.4506741034633777</v>
       </c>
       <c r="G2">
-        <v>0.221403076414056</v>
+        <v>0.2954979547034569</v>
       </c>
       <c r="H2">
-        <v>0.1972593115412451</v>
+        <v>0.4680169612718217</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.935219402047409</v>
+        <v>0.6343608047112923</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7839097143027445</v>
+        <v>0.2599284066513761</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8326961812428237</v>
+        <v>1.453487832759862</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2357086770814476</v>
+        <v>0.1329423308187501</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06050760285977219</v>
+        <v>0.02116874622711151</v>
       </c>
       <c r="E3">
-        <v>0.232289738428122</v>
+        <v>0.1568622348986963</v>
       </c>
       <c r="F3">
-        <v>0.3056203574101275</v>
+        <v>0.4498970512007432</v>
       </c>
       <c r="G3">
-        <v>0.2083860714858901</v>
+        <v>0.2959931267280993</v>
       </c>
       <c r="H3">
-        <v>0.1970381171963851</v>
+        <v>0.4719883458770653</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.715901929185634</v>
+        <v>0.561478374576069</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6799734780753042</v>
+        <v>0.2290251281312408</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.804280581022482</v>
+        <v>1.462599218654262</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.21508783238707</v>
+        <v>0.1271965829031245</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0555301162601225</v>
+        <v>0.01951168316361418</v>
       </c>
       <c r="E4">
-        <v>0.2133441637095288</v>
+        <v>0.1528795945473505</v>
       </c>
       <c r="F4">
-        <v>0.2932234245404288</v>
+        <v>0.4497835145380549</v>
       </c>
       <c r="G4">
-        <v>0.2011367466955178</v>
+        <v>0.2965901043679082</v>
       </c>
       <c r="H4">
-        <v>0.1973756476285047</v>
+        <v>0.474687383212725</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.581098315993728</v>
+        <v>0.5165045148913237</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6164499233443905</v>
+        <v>0.2100548491284684</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7893908777769525</v>
+        <v>1.469351443595599</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2067198933510213</v>
+        <v>0.124872841543791</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05349863439921876</v>
+        <v>0.01883413589204963</v>
       </c>
       <c r="E5">
-        <v>0.2057567322195268</v>
+        <v>0.1512964295268873</v>
       </c>
       <c r="F5">
-        <v>0.2883641117108482</v>
+        <v>0.4498285748792625</v>
       </c>
       <c r="G5">
-        <v>0.1983581765752334</v>
+        <v>0.2969068524993475</v>
       </c>
       <c r="H5">
-        <v>0.1976272604659357</v>
+        <v>0.4758527833578228</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.526116062042405</v>
+        <v>0.4981223031839477</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5906225161310843</v>
+        <v>0.2023255689110002</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7839319991492744</v>
+        <v>1.472393749490394</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2053324252017177</v>
+        <v>0.1244880595624096</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05316111017459946</v>
+        <v>0.01872149322969108</v>
       </c>
       <c r="E6">
-        <v>0.2045045024980396</v>
+        <v>0.1510359416015561</v>
       </c>
       <c r="F6">
-        <v>0.2875685221116129</v>
+        <v>0.4498415702187089</v>
       </c>
       <c r="G6">
-        <v>0.197907082376517</v>
+        <v>0.2969638804850376</v>
       </c>
       <c r="H6">
-        <v>0.1976757893959444</v>
+        <v>0.4760502542311471</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.516982997513452</v>
+        <v>0.4950666665654637</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5863370367723064</v>
+        <v>0.2010422082917245</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7830613535007274</v>
+        <v>1.472916468520907</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2149748416193518</v>
+        <v>0.1271651722501446</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05550273205808764</v>
+        <v>0.01950255470020323</v>
       </c>
       <c r="E7">
-        <v>0.2132413154517323</v>
+        <v>0.1528580826702708</v>
       </c>
       <c r="F7">
-        <v>0.2931571257010361</v>
+        <v>0.4497837525855815</v>
       </c>
       <c r="G7">
-        <v>0.2010985775017673</v>
+        <v>0.2965940788962271</v>
       </c>
       <c r="H7">
-        <v>0.1973785854969563</v>
+        <v>0.4747028349271076</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.58035701975794</v>
+        <v>0.5162568269587666</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6161013862435425</v>
+        <v>0.2099506040510306</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7893148366134568</v>
+        <v>1.469391296642712</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2578438919825317</v>
+        <v>0.1391336335988882</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06580939939968289</v>
+        <v>0.02292906842919251</v>
       </c>
       <c r="E8">
-        <v>0.2529987686209196</v>
+        <v>0.1612488763230573</v>
       </c>
       <c r="F8">
-        <v>0.3195401096569839</v>
+        <v>0.450330655739144</v>
       </c>
       <c r="G8">
-        <v>0.2167536027671773</v>
+        <v>0.2956077770030774</v>
       </c>
       <c r="H8">
-        <v>0.1970817404061194</v>
+        <v>0.4693322045099535</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.859619964417107</v>
+        <v>0.6092781179497422</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7480022679655818</v>
+        <v>0.249272105722298</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8223464687710305</v>
+        <v>1.456388884604195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3433200509064278</v>
+        <v>0.1631516676451525</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08595206112241982</v>
+        <v>0.02957349319558489</v>
       </c>
       <c r="E9">
-        <v>0.3362328770897136</v>
+        <v>0.1789807880906622</v>
       </c>
       <c r="F9">
-        <v>0.3782837809827058</v>
+        <v>0.4542931583769558</v>
       </c>
       <c r="G9">
-        <v>0.2538877800276964</v>
+        <v>0.2960068771553352</v>
       </c>
       <c r="H9">
-        <v>0.2004916207692986</v>
+        <v>0.4608685534058097</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.406791312046408</v>
+        <v>0.7898702725357225</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.009719259539828</v>
+        <v>0.3264145258855464</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9090506834379966</v>
+        <v>1.440097882490633</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4072498177084611</v>
+        <v>0.1811261772330255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1007376163908873</v>
+        <v>0.03440773518208573</v>
       </c>
       <c r="E10">
-        <v>0.4015687994189889</v>
+        <v>0.1928071712868942</v>
       </c>
       <c r="F10">
-        <v>0.426541532636648</v>
+        <v>0.4589746739484255</v>
       </c>
       <c r="G10">
-        <v>0.285886918611709</v>
+        <v>0.2977354345449754</v>
       </c>
       <c r="H10">
-        <v>0.205778818509387</v>
+        <v>0.455911947941118</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.809550602789329</v>
+        <v>0.9213900797547581</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.204971873436506</v>
+        <v>0.383113896132258</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9885344802411282</v>
+        <v>1.433771102881678</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4366426122533369</v>
+        <v>0.1893735033360855</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.107467984623554</v>
+        <v>0.0365963242264371</v>
       </c>
       <c r="E11">
-        <v>0.4324355078458524</v>
+        <v>0.1992749492471191</v>
       </c>
       <c r="F11">
-        <v>0.449798785856359</v>
+        <v>0.4614906803834415</v>
       </c>
       <c r="G11">
-        <v>0.3016571982697229</v>
+        <v>0.2988362710111545</v>
       </c>
       <c r="H11">
-        <v>0.2088711140283408</v>
+        <v>0.4539312144993488</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.993192842218235</v>
+        <v>0.9809599195114629</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.29470943305526</v>
+        <v>0.408913805830224</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.02869499192937</v>
+        <v>1.432124482465213</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4478231492598468</v>
+        <v>0.1925065745647601</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1100178137524068</v>
+        <v>0.03742353302348533</v>
       </c>
       <c r="E12">
-        <v>0.4443099453902875</v>
+        <v>0.2017500564312229</v>
       </c>
       <c r="F12">
-        <v>0.4588108276012477</v>
+        <v>0.4624991088094816</v>
       </c>
       <c r="G12">
-        <v>0.307820455418522</v>
+        <v>0.2992985661507674</v>
       </c>
       <c r="H12">
-        <v>0.2101483492717335</v>
+        <v>0.4532205865493921</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.062816671897934</v>
+        <v>1.003479108586987</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.328846382338099</v>
+        <v>0.4186845248072188</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.044529880715288</v>
+        <v>1.431678520680805</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4454129011409123</v>
+        <v>0.1918313700975744</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.109468600365318</v>
+        <v>0.03724544905718119</v>
       </c>
       <c r="E13">
-        <v>0.441743948294814</v>
+        <v>0.2012158412659701</v>
       </c>
       <c r="F13">
-        <v>0.4568605139064914</v>
+        <v>0.4622794479227039</v>
       </c>
       <c r="G13">
-        <v>0.30648429381624</v>
+        <v>0.299196978737001</v>
       </c>
       <c r="H13">
-        <v>0.2098684240109492</v>
+        <v>0.4533718788180892</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.047817905448994</v>
+        <v>0.9986309371127504</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.321487077530293</v>
+        <v>0.4165801903334625</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.041090811662855</v>
+        <v>1.431766660879418</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4375614048763623</v>
+        <v>0.1896310637885961</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1076777334983063</v>
+        <v>0.0366644107789682</v>
       </c>
       <c r="E14">
-        <v>0.4334085715870302</v>
+        <v>0.1994780570612917</v>
       </c>
       <c r="F14">
-        <v>0.4505359987330735</v>
+        <v>0.4615725280178395</v>
       </c>
       <c r="G14">
-        <v>0.3021603163813893</v>
+        <v>0.2988733926028715</v>
       </c>
       <c r="H14">
-        <v>0.2089740189766758</v>
+        <v>0.4538719602774677</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.998919054274438</v>
+        <v>0.9828133683587339</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.297514646535532</v>
+        <v>0.4097176326063021</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.029984864859642</v>
+        <v>1.432084231180141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4327588313120003</v>
+        <v>0.1882846083351239</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1065809474604293</v>
+        <v>0.0363083031693634</v>
       </c>
       <c r="E15">
-        <v>0.4283277808286101</v>
+        <v>0.1984169956511508</v>
       </c>
       <c r="F15">
-        <v>0.4466892890743495</v>
+        <v>0.4611467725491352</v>
       </c>
       <c r="G15">
-        <v>0.2995372017746547</v>
+        <v>0.2986811094768314</v>
       </c>
       <c r="H15">
-        <v>0.2084402370368252</v>
+        <v>0.4541834106548492</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.968978505150773</v>
+        <v>0.9731195819778975</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.282851794564735</v>
+        <v>0.4055142240584928</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.023265389738128</v>
+        <v>1.432301892627464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4053356401376504</v>
+        <v>0.1805886019286191</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1002979053432824</v>
+        <v>0.03426448971472951</v>
       </c>
       <c r="E16">
-        <v>0.399576403476857</v>
+        <v>0.1923880952627925</v>
       </c>
       <c r="F16">
-        <v>0.4250493300184033</v>
+        <v>0.4588180312984989</v>
       </c>
       <c r="G16">
-        <v>0.2848821311014262</v>
+        <v>0.297669838669961</v>
       </c>
       <c r="H16">
-        <v>0.2055911805248058</v>
+        <v>0.4560469102457603</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.797559490240474</v>
+        <v>0.9174917199286767</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.199127717067014</v>
+        <v>0.3814279397130349</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9859947527606039</v>
+        <v>1.433903535962173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3885957638584188</v>
+        <v>0.1758853215743841</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09644496067009101</v>
+        <v>0.0330079447656999</v>
       </c>
       <c r="E17">
-        <v>0.3822461979201179</v>
+        <v>0.1887353798733074</v>
       </c>
       <c r="F17">
-        <v>0.412120069997485</v>
+        <v>0.4574884614358723</v>
       </c>
       <c r="G17">
-        <v>0.2762142064948421</v>
+        <v>0.2971301570362996</v>
       </c>
       <c r="H17">
-        <v>0.2040244951846546</v>
+        <v>0.4572603155211254</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.692522990506916</v>
+        <v>0.8832984848514513</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.148016510279255</v>
+        <v>0.3666534803454127</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.964191075004436</v>
+        <v>1.435201852744171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3789963409274861</v>
+        <v>0.1731867773933686</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09422922179138027</v>
+        <v>0.03228422488979987</v>
       </c>
       <c r="E18">
-        <v>0.3723847299824001</v>
+        <v>0.1866511795778365</v>
       </c>
       <c r="F18">
-        <v>0.4048051799698769</v>
+        <v>0.4567600875412907</v>
       </c>
       <c r="G18">
-        <v>0.2713418074499288</v>
+        <v>0.2968493370779655</v>
       </c>
       <c r="H18">
-        <v>0.2031875784164967</v>
+        <v>0.4579840276790392</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.632147394443308</v>
+        <v>0.8636071250188024</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.118703410363622</v>
+        <v>0.3581562784783117</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9520236672222211</v>
+        <v>1.436064492030766</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3757509469878926</v>
+        <v>0.1722742454109749</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09347905835807069</v>
+        <v>0.03203901746900328</v>
       </c>
       <c r="E19">
-        <v>0.3690634637800301</v>
+        <v>0.1859483722537121</v>
       </c>
       <c r="F19">
-        <v>0.4023488707245448</v>
+        <v>0.4565197139660668</v>
       </c>
       <c r="G19">
-        <v>0.2697110380185421</v>
+        <v>0.296759332168925</v>
       </c>
       <c r="H19">
-        <v>0.2029150208650421</v>
+        <v>0.4582334934956123</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.611711265486861</v>
+        <v>0.8569358339227335</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.108792361939869</v>
+        <v>0.3552793931488196</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9479666336088428</v>
+        <v>1.436376454554633</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3903747218510176</v>
+        <v>0.1763853059132146</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09685507068169841</v>
+        <v>0.03314180876905937</v>
       </c>
       <c r="E20">
-        <v>0.3840798669257026</v>
+        <v>0.1891224825086368</v>
       </c>
       <c r="F20">
-        <v>0.4134836961364314</v>
+        <v>0.4576262325181304</v>
       </c>
       <c r="G20">
-        <v>0.2771250916840842</v>
+        <v>0.297184543045617</v>
       </c>
       <c r="H20">
-        <v>0.2041845749183295</v>
+        <v>0.4571284767446215</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.703700158920356</v>
+        <v>0.8869409394354193</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.153448453463582</v>
+        <v>0.3682261779651341</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9664730984225969</v>
+        <v>1.435051647775907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4398661743205707</v>
+        <v>0.1902770773674831</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1082037176818034</v>
+        <v>0.03683511858936583</v>
       </c>
       <c r="E21">
-        <v>0.4358516508417978</v>
+        <v>0.1999877811663922</v>
       </c>
       <c r="F21">
-        <v>0.4523879528148242</v>
+        <v>0.4617786557316919</v>
       </c>
       <c r="G21">
-        <v>0.3034250385310884</v>
+        <v>0.2989672030377193</v>
       </c>
       <c r="H21">
-        <v>0.2092337818230163</v>
+        <v>0.4537240038404633</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.013279413807737</v>
+        <v>0.9874604304474701</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.304551518994828</v>
+        <v>0.4117333103206846</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.033229507001721</v>
+        <v>1.431986129754677</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4725066320541913</v>
+        <v>0.1994142912471659</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1156279108435569</v>
+        <v>0.03923978119090066</v>
       </c>
       <c r="E22">
-        <v>0.4707821578512679</v>
+        <v>0.2072399822282236</v>
       </c>
       <c r="F22">
-        <v>0.4790181664865969</v>
+        <v>0.4648170510699643</v>
       </c>
       <c r="G22">
-        <v>0.3217378882983297</v>
+        <v>0.3003971831087711</v>
       </c>
       <c r="H22">
-        <v>0.2131568878171777</v>
+        <v>0.4517288399317465</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.216099463064211</v>
+        <v>1.052930024609566</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.404223573805055</v>
+        <v>0.4401726329444813</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.080539728359525</v>
+        <v>1.43101792181352</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4550569335724504</v>
+        <v>0.1945323244411981</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1116646245931037</v>
+        <v>0.03795721859221146</v>
       </c>
       <c r="E23">
-        <v>0.4520314380639547</v>
+        <v>0.2033554241442985</v>
       </c>
       <c r="F23">
-        <v>0.4646888660751856</v>
+        <v>0.4631656693395954</v>
       </c>
       <c r="G23">
-        <v>0.3118552061490618</v>
+        <v>0.2996096688365526</v>
       </c>
       <c r="H23">
-        <v>0.2110034310586997</v>
+        <v>0.4527726565408017</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.107798015807845</v>
+        <v>1.018008764432409</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.350934479105774</v>
+        <v>0.4249936375358203</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.054934603420691</v>
+        <v>1.431439781443913</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3895703788657698</v>
+        <v>0.1761592460541976</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09666966194841109</v>
+        <v>0.03308129294718753</v>
       </c>
       <c r="E24">
-        <v>0.3832505493615841</v>
+        <v>0.1889474242329356</v>
       </c>
       <c r="F24">
-        <v>0.4128668335414929</v>
+        <v>0.4575638340409185</v>
       </c>
       <c r="G24">
-        <v>0.2767129363026157</v>
+        <v>0.2971598634109327</v>
       </c>
       <c r="H24">
-        <v>0.2041120047309164</v>
+        <v>0.4571879997276653</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.698646927519206</v>
+        <v>0.8852942890742668</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.150992451268223</v>
+        <v>0.3675151712317657</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9654402538069462</v>
+        <v>1.435119193461077</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3200185137283</v>
+        <v>0.1565960697809459</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08050745534552561</v>
+        <v>0.02778420341057597</v>
       </c>
       <c r="E25">
-        <v>0.3130558056174877</v>
+        <v>0.1740450039608987</v>
       </c>
       <c r="F25">
-        <v>0.3615596497121771</v>
+        <v>0.4529109221252838</v>
       </c>
       <c r="G25">
-        <v>0.2430742267497266</v>
+        <v>0.2956477786064156</v>
       </c>
       <c r="H25">
-        <v>0.1991071860243778</v>
+        <v>0.4629366990435599</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.258714619384278</v>
+        <v>0.7412156407458497</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9384812806703806</v>
+        <v>0.305541644668935</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8830073958334594</v>
+        <v>1.443516321584724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142413774921593</v>
+        <v>0.2695451764135015</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02385247378005317</v>
+        <v>0.06859634910039603</v>
       </c>
       <c r="E2">
-        <v>0.1636080810366707</v>
+        <v>0.2640941369477261</v>
       </c>
       <c r="F2">
-        <v>0.4506741034633777</v>
+        <v>0.3271338212298787</v>
       </c>
       <c r="G2">
-        <v>0.2954979547034569</v>
+        <v>0.2214030764139991</v>
       </c>
       <c r="H2">
-        <v>0.4680169612718217</v>
+        <v>0.197259311541238</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6343608047112923</v>
+        <v>1.935219402047494</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2599284066513761</v>
+        <v>0.7839097143027445</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.453487832759862</v>
+        <v>0.8326961812428664</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329423308187501</v>
+        <v>0.2357086770815471</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02116874622711151</v>
+        <v>0.06050760286001378</v>
       </c>
       <c r="E3">
-        <v>0.1568622348986963</v>
+        <v>0.2322897384280935</v>
       </c>
       <c r="F3">
-        <v>0.4498970512007432</v>
+        <v>0.3056203574101204</v>
       </c>
       <c r="G3">
-        <v>0.2959931267280993</v>
+        <v>0.208386071485883</v>
       </c>
       <c r="H3">
-        <v>0.4719883458770653</v>
+        <v>0.1970381171963851</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.561478374576069</v>
+        <v>1.715901929185634</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2290251281312408</v>
+        <v>0.6799734780752829</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.462599218654262</v>
+        <v>0.8042805810224536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271965829031245</v>
+        <v>0.21508783238707</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01951168316361418</v>
+        <v>0.05553011626032145</v>
       </c>
       <c r="E4">
-        <v>0.1528795945473505</v>
+        <v>0.2133441637095288</v>
       </c>
       <c r="F4">
-        <v>0.4497835145380549</v>
+        <v>0.2932234245404217</v>
       </c>
       <c r="G4">
-        <v>0.2965901043679082</v>
+        <v>0.201136746695461</v>
       </c>
       <c r="H4">
-        <v>0.474687383212725</v>
+        <v>0.1973756476285189</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5165045148913237</v>
+        <v>1.581098315993643</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2100548491284684</v>
+        <v>0.6164499233443976</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.469351443595599</v>
+        <v>0.7893908777769667</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124872841543791</v>
+        <v>0.2067198933510497</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01883413589204963</v>
+        <v>0.05349863439922586</v>
       </c>
       <c r="E5">
-        <v>0.1512964295268873</v>
+        <v>0.2057567322195553</v>
       </c>
       <c r="F5">
-        <v>0.4498285748792625</v>
+        <v>0.2883641117108553</v>
       </c>
       <c r="G5">
-        <v>0.2969068524993475</v>
+        <v>0.1983581765752476</v>
       </c>
       <c r="H5">
-        <v>0.4758527833578228</v>
+        <v>0.1976272604659357</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4981223031839477</v>
+        <v>1.526116062042377</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2023255689110002</v>
+        <v>0.5906225161310701</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.472393749490394</v>
+        <v>0.7839319991492033</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244880595624096</v>
+        <v>0.205332425201604</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01872149322969108</v>
+        <v>0.05316111017457104</v>
       </c>
       <c r="E6">
-        <v>0.1510359416015561</v>
+        <v>0.2045045024980752</v>
       </c>
       <c r="F6">
-        <v>0.4498415702187089</v>
+        <v>0.2875685221116058</v>
       </c>
       <c r="G6">
-        <v>0.2969638804850376</v>
+        <v>0.197907082376517</v>
       </c>
       <c r="H6">
-        <v>0.4760502542311471</v>
+        <v>0.1976757893959444</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4950666665654637</v>
+        <v>1.51698299751348</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2010422082917245</v>
+        <v>0.5863370367723277</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.472916468520907</v>
+        <v>0.7830613535007416</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271651722501446</v>
+        <v>0.2149748416192523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01950255470020323</v>
+        <v>0.05550273205798106</v>
       </c>
       <c r="E7">
-        <v>0.1528580826702708</v>
+        <v>0.2132413154517394</v>
       </c>
       <c r="F7">
-        <v>0.4497837525855815</v>
+        <v>0.2931571257010432</v>
       </c>
       <c r="G7">
-        <v>0.2965940788962271</v>
+        <v>0.2010985775017105</v>
       </c>
       <c r="H7">
-        <v>0.4747028349271076</v>
+        <v>0.1973785854968426</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5162568269587666</v>
+        <v>1.580357019757912</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2099506040510306</v>
+        <v>0.6161013862435567</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.469391296642712</v>
+        <v>0.7893148366135279</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391336335988882</v>
+        <v>0.2578438919826596</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02292906842919251</v>
+        <v>0.0658093993997042</v>
       </c>
       <c r="E8">
-        <v>0.1612488763230573</v>
+        <v>0.2529987686208912</v>
       </c>
       <c r="F8">
-        <v>0.450330655739144</v>
+        <v>0.319540109656991</v>
       </c>
       <c r="G8">
-        <v>0.2956077770030774</v>
+        <v>0.2167536027671702</v>
       </c>
       <c r="H8">
-        <v>0.4693322045099535</v>
+        <v>0.1970817404060057</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6092781179497422</v>
+        <v>1.859619964417021</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.249272105722298</v>
+        <v>0.7480022679655889</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.456388884604195</v>
+        <v>0.8223464687710162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1631516676451525</v>
+        <v>0.3433200509065557</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02957349319558489</v>
+        <v>0.08595206112222087</v>
       </c>
       <c r="E9">
-        <v>0.1789807880906622</v>
+        <v>0.3362328770897136</v>
       </c>
       <c r="F9">
-        <v>0.4542931583769558</v>
+        <v>0.3782837809826987</v>
       </c>
       <c r="G9">
-        <v>0.2960068771553352</v>
+        <v>0.2538877800275898</v>
       </c>
       <c r="H9">
-        <v>0.4608685534058097</v>
+        <v>0.2004916207694123</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7898702725357225</v>
+        <v>2.406791312046465</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3264145258855464</v>
+        <v>1.009719259539843</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.440097882490633</v>
+        <v>0.9090506834379255</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1811261772330255</v>
+        <v>0.4072498177085748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03440773518208573</v>
+        <v>0.1007376163907878</v>
       </c>
       <c r="E10">
-        <v>0.1928071712868942</v>
+        <v>0.4015687994189889</v>
       </c>
       <c r="F10">
-        <v>0.4589746739484255</v>
+        <v>0.4265415326366266</v>
       </c>
       <c r="G10">
-        <v>0.2977354345449754</v>
+        <v>0.2858869186116664</v>
       </c>
       <c r="H10">
-        <v>0.455911947941118</v>
+        <v>0.2057788185094864</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9213900797547581</v>
+        <v>2.809550602789301</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.383113896132258</v>
+        <v>1.204971873436506</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.433771102881678</v>
+        <v>0.9885344802410714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1893735033360855</v>
+        <v>0.4366426122534222</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0365963242264371</v>
+        <v>0.1074679846237103</v>
       </c>
       <c r="E11">
-        <v>0.1992749492471191</v>
+        <v>0.4324355078458595</v>
       </c>
       <c r="F11">
-        <v>0.4614906803834415</v>
+        <v>0.449798785856359</v>
       </c>
       <c r="G11">
-        <v>0.2988362710111545</v>
+        <v>0.3016571982697229</v>
       </c>
       <c r="H11">
-        <v>0.4539312144993488</v>
+        <v>0.2088711140283408</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9809599195114629</v>
+        <v>2.993192842218264</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.408913805830224</v>
+        <v>1.294709433055289</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.432124482465213</v>
+        <v>1.02869499192937</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1925065745647601</v>
+        <v>0.4478231492599747</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03742353302348533</v>
+        <v>0.1100178137524495</v>
       </c>
       <c r="E12">
-        <v>0.2017500564312229</v>
+        <v>0.4443099453902946</v>
       </c>
       <c r="F12">
-        <v>0.4624991088094816</v>
+        <v>0.4588108276012477</v>
       </c>
       <c r="G12">
-        <v>0.2992985661507674</v>
+        <v>0.3078204554185788</v>
       </c>
       <c r="H12">
-        <v>0.4532205865493921</v>
+        <v>0.2101483492717335</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.003479108586987</v>
+        <v>3.062816671897849</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4186845248072188</v>
+        <v>1.328846382338114</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.431678520680805</v>
+        <v>1.044529880715316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1918313700975744</v>
+        <v>0.4454129011407986</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03724544905718119</v>
+        <v>0.1094686003652754</v>
       </c>
       <c r="E13">
-        <v>0.2012158412659701</v>
+        <v>0.4417439482948211</v>
       </c>
       <c r="F13">
-        <v>0.4622794479227039</v>
+        <v>0.4568605139064985</v>
       </c>
       <c r="G13">
-        <v>0.299196978737001</v>
+        <v>0.3064842938162968</v>
       </c>
       <c r="H13">
-        <v>0.4533718788180892</v>
+        <v>0.2098684240109492</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9986309371127504</v>
+        <v>3.047817905449023</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4165801903334625</v>
+        <v>1.321487077530264</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.431766660879418</v>
+        <v>1.041090811662855</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1896310637885961</v>
+        <v>0.4375614048763623</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0366644107789682</v>
+        <v>0.1076777334983916</v>
       </c>
       <c r="E14">
-        <v>0.1994780570612917</v>
+        <v>0.4334085715870373</v>
       </c>
       <c r="F14">
-        <v>0.4615725280178395</v>
+        <v>0.4505359987330593</v>
       </c>
       <c r="G14">
-        <v>0.2988733926028715</v>
+        <v>0.3021603163813467</v>
       </c>
       <c r="H14">
-        <v>0.4538719602774677</v>
+        <v>0.2089740189766758</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9828133683587339</v>
+        <v>2.998919054274467</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4097176326063021</v>
+        <v>1.297514646535504</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.432084231180141</v>
+        <v>1.029984864859614</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1882846083351239</v>
+        <v>0.4327588313120287</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0363083031693634</v>
+        <v>0.1065809474602872</v>
       </c>
       <c r="E15">
-        <v>0.1984169956511508</v>
+        <v>0.4283277808286172</v>
       </c>
       <c r="F15">
-        <v>0.4611467725491352</v>
+        <v>0.4466892890743637</v>
       </c>
       <c r="G15">
-        <v>0.2986811094768314</v>
+        <v>0.2995372017745979</v>
       </c>
       <c r="H15">
-        <v>0.4541834106548492</v>
+        <v>0.208440237036811</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9731195819778975</v>
+        <v>2.968978505150801</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4055142240584928</v>
+        <v>1.282851794564792</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.432301892627464</v>
+        <v>1.023265389738043</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1805886019286191</v>
+        <v>0.4053356401374373</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03426448971472951</v>
+        <v>0.1002979053435666</v>
       </c>
       <c r="E16">
-        <v>0.1923880952627925</v>
+        <v>0.3995764034768641</v>
       </c>
       <c r="F16">
-        <v>0.4588180312984989</v>
+        <v>0.4250493300184246</v>
       </c>
       <c r="G16">
-        <v>0.297669838669961</v>
+        <v>0.2848821311012983</v>
       </c>
       <c r="H16">
-        <v>0.4560469102457603</v>
+        <v>0.2055911805248058</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9174917199286767</v>
+        <v>2.797559490240417</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3814279397130349</v>
+        <v>1.199127717067014</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.433903535962173</v>
+        <v>0.9859947527606607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1758853215743841</v>
+        <v>0.3885957638584188</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0330079447656999</v>
+        <v>0.09644496066998443</v>
       </c>
       <c r="E17">
-        <v>0.1887353798733074</v>
+        <v>0.3822461979201606</v>
       </c>
       <c r="F17">
-        <v>0.4574884614358723</v>
+        <v>0.412120069997485</v>
       </c>
       <c r="G17">
-        <v>0.2971301570362996</v>
+        <v>0.2762142064948065</v>
       </c>
       <c r="H17">
-        <v>0.4572603155211254</v>
+        <v>0.2040244951846404</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8832984848514513</v>
+        <v>2.692522990506887</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3666534803454127</v>
+        <v>1.148016510279234</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.435201852744171</v>
+        <v>0.9641910750043508</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1731867773933686</v>
+        <v>0.3789963409275003</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03228422488979987</v>
+        <v>0.09422922179127369</v>
       </c>
       <c r="E18">
-        <v>0.1866511795778365</v>
+        <v>0.3723847299824001</v>
       </c>
       <c r="F18">
-        <v>0.4567600875412907</v>
+        <v>0.4048051799698769</v>
       </c>
       <c r="G18">
-        <v>0.2968493370779655</v>
+        <v>0.2713418074499359</v>
       </c>
       <c r="H18">
-        <v>0.4579840276790392</v>
+        <v>0.2031875784164967</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8636071250188024</v>
+        <v>2.632147394443365</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3581562784783117</v>
+        <v>1.118703410363636</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.436064492030766</v>
+        <v>0.9520236672221642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1722742454109749</v>
+        <v>0.3757509469879068</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03203901746900328</v>
+        <v>0.09347905835785042</v>
       </c>
       <c r="E19">
-        <v>0.1859483722537121</v>
+        <v>0.3690634637800443</v>
       </c>
       <c r="F19">
-        <v>0.4565197139660668</v>
+        <v>0.4023488707245448</v>
       </c>
       <c r="G19">
-        <v>0.296759332168925</v>
+        <v>0.2697110380185421</v>
       </c>
       <c r="H19">
-        <v>0.4582334934956123</v>
+        <v>0.2029150208650421</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8569358339227335</v>
+        <v>2.611711265486804</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3552793931488196</v>
+        <v>1.108792361939877</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.436376454554633</v>
+        <v>0.947966633608786</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1763853059132146</v>
+        <v>0.3903747218510176</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03314180876905937</v>
+        <v>0.09685507068158472</v>
       </c>
       <c r="E20">
-        <v>0.1891224825086368</v>
+        <v>0.3840798669256955</v>
       </c>
       <c r="F20">
-        <v>0.4576262325181304</v>
+        <v>0.4134836961364385</v>
       </c>
       <c r="G20">
-        <v>0.297184543045617</v>
+        <v>0.2771250916840984</v>
       </c>
       <c r="H20">
-        <v>0.4571284767446215</v>
+        <v>0.2041845749183295</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8869409394354193</v>
+        <v>2.703700158920242</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3682261779651341</v>
+        <v>1.153448453463582</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.435051647775907</v>
+        <v>0.9664730984224832</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1902770773674831</v>
+        <v>0.4398661743205565</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03683511858936583</v>
+        <v>0.1082037176818744</v>
       </c>
       <c r="E21">
-        <v>0.1999877811663922</v>
+        <v>0.4358516508417836</v>
       </c>
       <c r="F21">
-        <v>0.4617786557316919</v>
+        <v>0.4523879528148171</v>
       </c>
       <c r="G21">
-        <v>0.2989672030377193</v>
+        <v>0.3034250385310315</v>
       </c>
       <c r="H21">
-        <v>0.4537240038404633</v>
+        <v>0.2092337818230163</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9874604304474701</v>
+        <v>3.013279413807908</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4117333103206846</v>
+        <v>1.304551518994828</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.431986129754677</v>
+        <v>1.033229507001693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1994142912471659</v>
+        <v>0.4725066320541913</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03923978119090066</v>
+        <v>0.1156279108435569</v>
       </c>
       <c r="E22">
-        <v>0.2072399822282236</v>
+        <v>0.4707821578513034</v>
       </c>
       <c r="F22">
-        <v>0.4648170510699643</v>
+        <v>0.4790181664866182</v>
       </c>
       <c r="G22">
-        <v>0.3003971831087711</v>
+        <v>0.3217378882983155</v>
       </c>
       <c r="H22">
-        <v>0.4517288399317465</v>
+        <v>0.2131568878171919</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.052930024609566</v>
+        <v>3.216099463064296</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4401726329444813</v>
+        <v>1.404223573805055</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.43101792181352</v>
+        <v>1.080539728359582</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1945323244411981</v>
+        <v>0.4550569335724646</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03795721859221146</v>
+        <v>0.1116646245932316</v>
       </c>
       <c r="E23">
-        <v>0.2033554241442985</v>
+        <v>0.4520314380639761</v>
       </c>
       <c r="F23">
-        <v>0.4631656693395954</v>
+        <v>0.4646888660751713</v>
       </c>
       <c r="G23">
-        <v>0.2996096688365526</v>
+        <v>0.3118552061490618</v>
       </c>
       <c r="H23">
-        <v>0.4527726565408017</v>
+        <v>0.2110034310588134</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.018008764432409</v>
+        <v>3.107798015807958</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4249936375358203</v>
+        <v>1.350934479105788</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.431439781443913</v>
+        <v>1.054934603420747</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1761592460541976</v>
+        <v>0.3895703788656704</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03308129294718753</v>
+        <v>0.09666966194836846</v>
       </c>
       <c r="E24">
-        <v>0.1889474242329356</v>
+        <v>0.3832505493616054</v>
       </c>
       <c r="F24">
-        <v>0.4575638340409185</v>
+        <v>0.4128668335414787</v>
       </c>
       <c r="G24">
-        <v>0.2971598634109327</v>
+        <v>0.2767129363025731</v>
       </c>
       <c r="H24">
-        <v>0.4571879997276653</v>
+        <v>0.2041120047309164</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8852942890742668</v>
+        <v>2.698646927519235</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3675151712317657</v>
+        <v>1.15099245126823</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.435119193461077</v>
+        <v>0.9654402538069462</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1565960697809459</v>
+        <v>0.3200185137283</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02778420341057597</v>
+        <v>0.08050745534565351</v>
       </c>
       <c r="E25">
-        <v>0.1740450039608987</v>
+        <v>0.3130558056174877</v>
       </c>
       <c r="F25">
-        <v>0.4529109221252838</v>
+        <v>0.3615596497121771</v>
       </c>
       <c r="G25">
-        <v>0.2956477786064156</v>
+        <v>0.2430742267496697</v>
       </c>
       <c r="H25">
-        <v>0.4629366990435599</v>
+        <v>0.1991071860243778</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7412156407458497</v>
+        <v>2.25871461938425</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.305541644668935</v>
+        <v>0.9384812806703806</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.443516321584724</v>
+        <v>0.8830073958335021</v>
       </c>
     </row>
   </sheetData>
